--- a/posts/webscraping_python/output.xlsx
+++ b/posts/webscraping_python/output.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abschied von Marian Goodman      Künstlerin Nan Goldin wechselt zu Gagosian</t>
+          <t>Messetipps      7 Stände, die sich auf der Art Düsseldorf lohnen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/kuenstlerin-nan-goldin-wechselt-zu-gagosian</t>
+          <t>https://www.monopol-magazin.de/7-staende-die-sich-auf-der-art-duesseldorf-lohnen</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Die US-Fotografin Nan Goldin verlässt nach fünf Jahren die Marian Goodman Gallery und wird künftig von Gagosian vertretenGagosian teilte dazu mit, die Galerie mit Standorten in den USA, Europa und Asien werde Nan Goldin künftig weltweit vertreten. Vorher war die US-Fotografin und Filmemacherin fünf Jahre bei der Marian Goodman Gallery gewesen. Für die Kunsthändlerin und ihre Partner ist es der zweite prominente Weggang innerhalb kurzer Zeit. Im vergangenen Dezember war der deutsche Maler Gerhard Richter zur Galerie David Zwirner gewechselt.Nan Goldin (69) wurde mit intimen Bildern aus der New Yorker Subkultur bekannt und gilt heute als eine der bedeutendsten Fotokünstlerinnen. In den vergangenen Jahren kämpfte sie außerdem gegen den Einfluss der Familie Sackler auf Kunstinstitutionen. Den Mäzenen aus der Pharmabranche wird vorgeworfen, durch das Schmerzmittel Oxycontin maßgeblich für die Opioidkrise in den USA mitverantwortlich zu sein. Der Film "All The Beauty And The Bloodshed", den die Regisseurin Laura Poitras über Nan Goldin gedreht hat, gewann 2022 den Goldenen Löwen bei den Filmfestspielen von Venedig. Im März erhielt sie den Käthe-Kollwitz-Preis der Akademie der Künste.Laut "Artnews" wird die Künstlerin neben Gagosian auch weiter von der Fraenkel Gallery aus San Francisco vertreten.</t>
+          <t>Auf der Art Düsseldorf zeigen 95 Galerien noch bis Sonntag eine ganze Menge zeitgenössische Kunst. Hier eine kleine Orientierungshilfe, wo man vorbeischauen sollte Charlotte Klobassa bei Zeller von AlmsickEs gibt eine Art von Kunst, die täglich überall auf der Welt entsteht, die aber selten beachtet wird: die Kritzeleien, mit denen Menschen in Schreibwaren- oder Künstlerbedarfsläden Stifte oder Pinsel ausprobieren. Die österreichische Malerin Charlotte Klobassa hat diese meist abstrakten Farbformen gesammelt und auf die Leinwand gebracht. Nun wirken die Bilder von weitem wie zarte Aquarelle, bei näherem Hinsehen entpuppen sie sich jedoch als akribisch ausgearbeitete Ölmalereien. Dass die Künstlerin die Wände der Koje ihrer Galerie durch weiße Vorhänge ersetzt hat, verleiht dem Ensemble eine auf Messen seltene Leichtigkeit.Zeller van Almsick, Wien, Stand: Alte Schmiedehalle</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kunstmesse      Art Düsseldorf feiert fünfte Auflage</t>
+          <t>Leitplanken und Uecker-Nägel      Art Düsseldorf mit großem Angebot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/art-duesseldorf-feiert-fuenfte-auflage</t>
+          <t>https://www.monopol-magazin.de/art-duesseldorf-mit-grossem-angebot</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Die junge Kunstmesse Art Düsseldorf hat sich neben der größeren Art Cologne zu einem vielbeachteten Treff der Kunstsammler entwickelt. Die Düsseldorfer bieten auch Nachwuchsgalerien eine Bühne.Die Kunstmesse Art Düsseldorf startet am Freitag mit ihrer fünften Auflage. Bis Sonntag (2. April) zeigen im Areal Böhler 95 Galerien aus dem In- und Ausland moderne und zeitgenössische Kunst. Nach der Corona-Pandemie kehrt die noch junge Kunstmesse damit nach Angaben der Veranstalter wieder zu den Bedingungen zurück, die an das Jahr 2019 anknüpfen. Damals besuchten rund 40 000 Kunstinteressierte die Kunstmesse. Die Art Düsseldorf ist weiterhin eine Kunstmesse mit einer starken Bindung ins Rheinland, aber auch nach Berlin. Das Rheinland ist mit 29 Galerien vertreten und wird von 30 Berliner Galerien flankiert. Aus Süddeutschland und Österreich kommen 15 Galerien. Unter den Ausstellern sind auch Galerien mit internationalen Standorten etwa in London, Madrid, Lissabon, Kopenhagen, New York, Istanbul, Kolkata und Buenos Aires. 35 Galerien seien dieses Jahr zum ersten Mal auf der Art Düsseldorf vertreten, hieß es weiter. Die Messe bietet in einer besonderen Sektion auch jüngeren Galerien eine Bühne, die seit weniger als zehn Jahren bestehen und Werke von Nachwuchskünstlerinnen und -künstlern zeigen. Begleitet wird die Messe zudem von einem Talk-Programm mit Persönlichkeiten der Kunstszene, die über den Generationenwechsel im Kunstbetrieb sprechen oder über die Herausforderung des Arbeitens im Kollektiv. "Beitrag zur Zukunft der Kunstwelt"Als Folge der Corona-Pandemie bietet die Art Düsseldorf viele digitale Angebote an. So können Besucher virtuell über einen Live-Stream an Messenführungen und an Talk-Programmen teilnehmen.Trotz einer Zwangspause in der Corona-Pandemie hat sich die noch junge Art Düsseldorf als Ergänzung zur größten deutschen Kunstmesse Art Cologne behaupten können. Denn an wohlhabender Kundschaft herrscht im Rheinland und in den Benelux-Staaten kein Mangel. Die Art Cologne ist mit zuletzt rund 190 Ausstellern weit größer als die Art Düsseldorf und findet seit 2022 im Herbst statt. Vergangenes Jahr hatte die Art Düsseldorf nach mehreren Verschiebungen wegen Corona ihr Comeback gefeiert. Unterstützt wurde die Messe dabei aus dem Corona-Rettungsprogramm "Neustart Kultur" des Bundes. "Die Art Düsseldorf ist ein wichtiger Ort des Austauschs und der Inspiration, und wir sind bestrebt, unseren Beitrag zur Zukunft der Kunstwelt zu leisten", sagte Messe-Direktor Walter Gehlen.</t>
+          <t>Zeller van Almsick, Art Düsseldorf 2023</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art Düsseldorf      Gut aufgestellt</t>
+          <t>Abschied von Marian Goodman      Künstlerin Nan Goldin wechselt zu Gagosian</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/art-duesseldorf-2023</t>
+          <t>https://www.monopol-magazin.de/kuenstlerin-nan-goldin-wechselt-zu-gagosian</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Art Düsseldorf, Areal Böhler, 31. März bis 2. April</t>
+          <t>Copperfield GalleryAuf einer Messe, wo leicht verkäufliche Medien wie Gemälde, Fotografie und kleinere Skulpturen dominieren, sticht die Videoinstallation bei der Londoner Galerie Copperfield heraus. Auf dem Bildschirm zwischen umgekippten Einkaufswagen läuft das Werk "Beyond The Substrata" des britisch-ghanaischen Künstlers Larry Achiampong, auf dem eine vermummte Person in einem verlassenen Supermarkt tanzt und eine Stimme aus dem Off über Rassismus und Rebellion reflektiert. Der apokalyptisch-poetische Film wird unter anderem flankiert von Achiampongs Collagen-Serie "Glyth" und glamourösen Fotografien von Ada M. Patterson. Eine überzeugende und dichte Inszenierung. Copperfield Gallery, London, Alte Schmiedehalle</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auktion bei Van Ham      Picasso-Gemälde mit Millionenwert wird in Köln versteigert</t>
+          <t>Kunstmesse      Art Düsseldorf feiert fünfte Auflage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/picasso-gemaelde-mit-millionenwert-wird-koeln-versteigert</t>
+          <t>https://www.monopol-magazin.de/art-duesseldorf-feiert-fuenfte-auflage</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Art Düsseldorf, Areal Böhler, 31. März bis 2. AprilDieser Text erschien zuerst in Monopol 03/2023</t>
+          <t>Stand der Copperfield Gallery aus London auf der Art Düsseldorf 2023</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>New York      Erstmals Schau mit Richter-Werken in Zwirner-Galerie</t>
+          <t>Art Düsseldorf      Gut aufgestellt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/erstmals-schau-mit-richter-werken-zwirner-galerie</t>
+          <t>https://www.monopol-magazin.de/art-duesseldorf-2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>In Köln wird demnächst ein auf 1,5 bis 2,5 Millionen Euro geschätztes Picasso-Gemälde versteigertEs gehe um "Buste de femme" (Frauenbüste) von 1971, teilte das Auktionshaus Van Ham mit. "Vermutlich wurde noch nie ein vergleichbares Gemälde von Pablo Picasso auf dem deutschen Auktionsmarkt angeboten", sagte Auktionator Robert van den Valentyn.In dem Bild sei Picassos zweite Ehefrau Jacqueline Roque wiederzuerkennen. Es stamme aus einer bedeutenden deutschen Privatsammlung. Unter den mehr als 600 Werken mit einem Gesamtvolumen von über zehn Millionen Euro befänden sich auch Werke von Louise Bourgeois, Paul Klee, Sigmar Polke, Egon Schiele und Kurt Schwitters. Die diesjährige Frühjahrsauktion von Van Ham findet am 5. und 6. Juni statt.</t>
+          <t>Rebekka Benzenberg und Monika Grabuschnigg bei Anton JanizewskiUngewöhnliche Verhältnisse zu alltäglichen Gegenständen prägen den Stand des jungen Berliner Galeristen Anton Janizewski. Die Künstlerin Rebekka Benzenberg schafft Installationen aus alten Daunen- oder Lederjacken und gibt den ausrangierten Kleidungsstücken eine körperliche und skulpturale Qualität. Monika Grabuschnigg setzt sich mit Kühlschranktüren auseinander und verwandelt diese in glänzende Keramikwerke mit verschiedenen Ornamenten. Überraschenderweise gibt der Single-Kühlschrank, besonders nach der Pandemie, ein besonders kreatives und optisch verführerisches Vanitas-Symbol ab.Anton Janizewski, Berlin, Kaltstahlhalle</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Auktion in Köln      Richter-Bild für halbe Million Euro versteigert</t>
+          <t>Talkreihe auf der Art Düsseldorf      Wie können die Generationen voneinander lernen?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/richter-bild-fuer-halbe-million-euro-versteigert</t>
+          <t>https://www.monopol-magazin.de/wie-koennen-die-generationen-voneinander-lernen</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wenige Monate nachdem die New Yorker Galerie Zwirner die Vertretung von Gerhard Richter übernommen hat, ist dort erstmals eine Ausstellung mit Werken des Künstlers zu sehenMehrere Dutzend Gemälde, Papierarbeiten und eine Glas-Skulptur des 91-Jährigen sollen noch bis zum 22. April ausgestellt sein, teilte die von David Zwirner gegründete Galerie mit. Sie hatte im Dezember die Vertretung von Richter übernommen.Die Eröffnung der ersten Richter-Schau sei ein "unglaublich stolzer Moment" für die Galerie, sagte Zwirner bei einer Führung durch die Ausstellung. Zuletzt war in New York 2020 eine Ausstellung mit Werken von Richter zu sehen gewesen – diese Schau im Museum Met Breuer musste aber aufgrund der Corona-Pandemie schon nach wenigen Tagen wieder schließen.Richter, der in Köln lebt und arbeitet, wird zu den bedeutendsten und erfolgreichsten zeitgenössischen Künstlern gezählt. "Ich kenne David seit seiner Kindheit und habe in den 60er-Jahren schon eng mit seinem Vater, Rudolf Zwirner, zusammengearbeitet", war Richter zitiert worden, als die Übernahme seiner Vertretung durch David Zwirner bekannt gegeben wurde. "Es fühlt sich für mich wie eine wunderbare Kontinuität über Generationen an." Zuvor war Richter fast 40 Jahre lang bei der Galerie Marian Goodman.Rudolf Zwirner war Galerist in Köln. Sein Sohn David hat neben mehreren Galerien in New York auch Filialen unter anderem in London und Hongkong.</t>
+          <t>Stand von Anton Janizewski auf der Art Düsseldorf 2023</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kunstmesse Art Düsseldorf      Extrarunde in den Galerien</t>
+          <t>Auktion in Kalifornien      Banksy-Werk bringt Millionen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/extrarunde-den-galerien</t>
+          <t>https://www.monopol-magazin.de/banksy-werk-bringt-millionen</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>"Gerhard Richter", Zwirner Gallery, 537 West 20th Street, New York, bis 22. April</t>
+          <t>Inge Mahn bei Kadel WillbornEine gelungene Inszenierung am Stand ist bei der Düsseldorfer Galerie Kadel Willborn zu finden. Eine monochrom weiße Installation der Künstlerin Inge Mahn thront im Zentrum und wird von den digital manipulierten Fotografienvon von Jan Paul Evers flankiert. So erhebt sich eine mächtige Welle hinter Mahns künstlerischem Balanceakt, bei dem ein Stuhl auf einer Kugel steht. Man sollte sich außerdem unbedingt um die Ecke des Stands trauen: Hinter einer Wand versteckt sich Inge Mahns wahrscheinlich lustigste Installation aus Miniatur-Hundehütten. Minimalistische Architektur mit Wassernapf.Kadel Willborn, Düsseldorf, Alte Schmiedehalle</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eröffnung der Grove-Galerie in Berlin      "Gemeinsam ein neues System schaffen"</t>
+          <t>Auktion in Köln      Richter-Bild für halbe Million Euro versteigert</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/interview-grove-gallery-berlin</t>
+          <t>https://www.monopol-magazin.de/richter-bild-fuer-halbe-million-euro-versteigert</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Das Gerhard-Richter-Werk "Grün-Rot-Blau 789-33" aus dem Jahr 1993 ist am Mittwoch in Köln für 533 400 Euro versteigert wordenEs habe damit weit über dem Schätzpreis von 350 000 bis 450 000 Euro gelegen, sagte eine Sprecherin des Auktionshauses Sotheby's. Ein Farbraumkörper von Gotthard Graubner erzielte 469 900 Euro. Das Werk war auf 300 000 bis 500 000 Euro geschätzt worden. In der Auktion wurden unter anderem Arbeiten aus der Privatsammlung von Ingvild Goetz versteigert. Die Münchner Sammlerin und Kuratorin hatte sich den Angaben zufolge zum Verkauf von insgesamt 49 Werken entschlossen, um mit dem Erlös ein Projekt gegen Altersarmut fördern zu können.</t>
+          <t>Stand von Kadel Willborn auf der Art Düsseldorf, 2023</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Art Basel in Hongkong      Eine Kunstmesse für alle</t>
+          <t>Kunstmesse Art Düsseldorf      Extrarunde in den Galerien</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/art-basel-hongkong-2023</t>
+          <t>https://www.monopol-magazin.de/extrarunde-den-galerien</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Die Galerie Grove aus London orientiert sich an den Bedürfnissen ihrer Künstlerinnen und Künstler und eröffnet nun einen neuen Standort in Berlin. Ein Gespräch über garantiertes Einkommen in der Kunst und Ideen für die deutsche HauptstadtJacob Barnes und Morgane Wagner, Sie haben die Galerie Grove 2021 während der Pandemie eröffnet. Wie kamen Sie zu diesem Entschluss? Warum in beschwerlichen Zeiten von Corona? Jacob Barnes: Wir befanden uns in einer Phase der Pandemie, in der es einen Impfstoff gab, und alle sprachen ständig von der "neuen Normalität". Morgane und ich hatten das Gefühl, dass wir vor der Wahl standen: entweder zu größeren Organisationen oder Institutionen zu gehen und ihnen beim Übergang zur "neuen Normalität" zu helfen oder unsere eigene Organisation zu gründen, die den Bedürfnissen der Gemeinschaften, in denen wir tätig waren, am besten gerecht wurde. Von Anfang an war uns klar, dass unser Ziel darin bestand, eine Organisation zu gründen, die den Bedürfnissen der Künstler entspricht und sich mit ihnen auseinandersetzt, ihnen aber auch Möglichkeiten bietet, sich längerfristig zu entwickeln. Vor allem, wenn wir den Markt ansehen. Für die Künstler, mit denen wir längerfristig zusammenarbeiten wollen, nehmen wir alle möglichen Bausteine, um auf eine nachhaltigere Zukunft hinzuarbeiten, anstatt daran zu denken, wie viel Geld man heute, morgen oder nächste Woche aus jemandem herausholen kann.Was sind denn diese Bedürfnisse, die Grove erfüllen will?JB: Mit das Wichtigste ist, den von uns vertretenen Künstlern ein garantiertes Einkommen zu bieten, unabhängig von den Verkäufen. Als wir die Galerie gründeten, stellten wir fest, dass jüngere Künstler das Problem plagt, dass sie in einen Teufelskreis geraten, in dem sie Arbeiten machen, nicht genug verkaufen, um zu überleben, und dann in einer Kneipe oder als Künstlerassistent arbeiten. Das bedeutet, dass ihnen die Zeit für das Atelier genommen wird und sie nicht genug Werke schaffen und nicht verkaufen können. In Anbetracht dessen wollten wir ein paar Positionen finden, von denen wir wirklich begeistert waren, um ihnen zu helfen, ihre Praxis auf die nächste Stufe zu heben. Sobald dies geschehen war und wir eine annehmbare Anzahl von Arbeiten zusammengetragen hatten, konnten wir damit beginnen, sie zu platzieren und eine breitere Öffentlichkeit zu erreichen. So kam die Sache wirklich ins Rollen.Es geht also um das Bedürfnis nach Sicherheit?JB: Ein weiteres Beispiel ist die derzeitige Umwandlung unserer Räume in Wohn- und Arbeitsräume, Residencys sozusagen. Das ist in Berlin bereits geschehen, und in London ist es im Gange. Wir wollen die Räume als Möglichkeit für Künstler nutzen, um aus ihrem Umfeld herauszukommen. Wir wollen ihnen Mobilität bieten.Auf Ihrer Website steht, dass Grove sowohl eine Galerie als auch eine "Forschungseinrichtung" ist. Sie haben auch die Zeitschrift "Curatorial Affairs" gegründet. Wie kommen all diese verschiedenen Bereiche zusammen?JB: Vieles in dieser Branche ist reine Erfahrung. Anstatt uns um uns selbst zu drehen und alle zu belügen, wollten wir deutlich machen, dass wir zwar nicht alles wissen, aber dass wir uns bemühen, die beste Version von uns zu betreiben, die wir sein können. Wir haben begonnen, aktiv nach Alternativen zu den bereits bestehenden Modellen zu suchen und sie zu nutzen. Das garantierte Einkommen zum Beispiel hilft den Künstlern wirklich. Es gibt eine Million kleiner Dinge, auf die wir achten können, die mit dem Betrieb einer Galerie einhergehen. Wie wir zum Beispiel mit dem Abfall von Luftpolsterfolie umgehen oder wie wir unsere Eröffnungen durchführen.Und die Zeitschrift?JB: Ursprünglich sollte "Curatorial Affairs" als Journal für unsere Forschung dienen. Doch das hat sich geändert: Plötzlich haben wir einen internationalen Vertrieb und Waterstones hat uns gebeten, unsere nächste Ausgabe am 4. April herauszubringen. "Curatorial Affairs" hat sich ein wenig verlagert und ist jetzt mehr darauf ausgerichtet, unsere Gemeinschaft zu stärken, zusammen mit all den Künstlern, die zu unserem Programm gehören, für die wir aber keinen Platz haben. Nur weil wir einige Werke nicht bei uns ausstellen können, heißt das nicht, dass wir sie nicht lieben und die Arbeit großartig finden.Stellen Sie Ihre Forschungsergebnisse auch anderen zur Verfügung?JB: Wir haben dazu in "Curatorial Affairs" veröffentlicht, und das ist immer noch ein guter Ort dafür. Wir sind keine Galerie mit unendlichen Mitteln. Ein Teil davon, Forschung zugänglich zu machen und darüber zu sprechen, was wir tun, ist der Versuch, der breiteren Gemeinschaft zu sagen: Wenn wir es tun können, könnt ihr es auch. In gewisser Hinsicht wollen wir Druck auf andere ausüben, damit sie ein besseres System aufbauen. Denn das ist möglich, sogar auf finanziell nachhaltige Weise.Morgane Wagner: Der Gedanke des Teilens spielt eine wichtige Rolle. Wir sind gern bereit zu teilen. Jacob und ich haben Fragen gestellt und die Erfahrung gemacht: Manche Leute waren sehr offen, andere nicht. Oft haben sie Angst, dass man sie plötzlich überholt, wenn man dieses Wissen hat. Was Unsinn ist, denn wir sind völlig unterschiedlich. Wir versuchen nur, uns gegenseitig zu helfen. Wir haben alle unsere kleinen Galerien. Wir sind hier, um uns gegenseitig zu helfen und gemeinsam zu wachsen. Denn wenn es dich nicht gibt, können wir nicht existieren. Es ist dieser kleine Ökokosmos.Jetzt eröffnen Sie einen permanenten Standort in Berlin. Warum hier?MW: Jacob und ich haben uns in Berlin kennengelernt. Wir haben beide hier studiert und uns eines Abends in der Omega Bar in Neukölln getroffen. Wir setzten uns nebeneinander und begannen zu reden. Unsere Ideen und die Art und Weise, wie wir die Dinge sehen, waren so ähnlich, und gleichzeitig hatten wir unterschiedliche Blickwinkel und Lebensweisen. Nach diesem Abend blühte unsere Freundschaft auf, und wir trafen uns hin und wieder. Irgendwann zog Jacob nach London, und wir brachten meine Erfahrungen als Galeristin (ich helfe immer noch Künstlern und arbeite mit ihnen zusammen) und Jacobs Erfahrungen als Leiter des "Soft Punk Magazine", eines erfolgreichen Kulturmagazins, sowie seine Erfahrungen in der Zusammenarbeit mit Galerien und der Organisation von Ausstellungen zusammen. Unsere Ideen und unsere Freundschaft wuchsen noch enger zusammen. Und dann rief mich Jacob Ende 2020 an und sagte: "Ich bin zu dem Schluss gekommen, dass wir nächsten Monat eine Galerie eröffnen werden; ich brauche jetzt eine Ja- oder Nein-Antwort."JB: Ich weiß noch, dass ich im Bus saß.MW: Ich ging die Straße in Battersea entlang, wo die Londoner Galerie liegt. Das ist auch die Gegend, in der ich aufgewachsen bin. Ich bin jemand, der immer Zeit zum Nachdenken braucht, also habe ich Jacob gesagt, dass ich nachdenken muss. Jacob hingegen - und das ist ein guter Balanceakt in unserer Beziehung - hat viele Ideen und setzt diese auch direkt um. Ich glaube, entweder am selben Tag oder am nächsten Morgen bekam ich einen weiteren Anruf von Jacob, der mich fragte: "Machen wir das jetzt oder nicht?" Ich habe gesagt: "Okay, wir machen es!" Und das war's. Berlin ist als europäischer Knotenpunkt ein so wichtiger Ort, weil wir hier gewohnt und uns hier kennengelernt haben und die Geschichte von Grove in gewisser Weise in Berlin begann. Ein Kreis, der sich nun mit der Eröffnung unseres zweiten Raums hier wieder schließt.Wie ging die Geschichte dann weiter?JB: Es begann mit dem Raum Backhaus Projects in Neukölln. Innerhalb der drei Monate, in denen Morgane und ich die Galerie in London eröffneten, erzählten uns gemeinsame Freunde aus Berlin, dass sie einen Projektraum, eine Art Gemeinschaftsraum in Berlin eröffnen wollten, aber a) eine Ko-Finanzierung benötigten und b) nicht genug Leute hatten, um das Programm zu füllen. Die Kosten durch vier statt durch zwei zu teilen war viel günstiger. Es war eine großartige Gelegenheit für uns, weil wir wussten, dass wir irgendwann expandieren wollten und auf diese Weise Leute kennenlernen konnten. Der Betrieb einer Galerie besteht zu 90 Prozent nicht aus der Kunst, sondern aus den Transporteuren, den Aufbauteams und all den Leuten dazwischen. Letztendlich war es auch jemand von Backhaus, der uns Hannah vorstellte, die Grove Berlin leiten wird. Technisch gesehen sind wir immer noch mit dem Projektraum verbunden, da wir ihn gegründet haben, aber jetzt läuft er eigenständig weiter. Wir mischen uns nicht mehr wirklich ein, weil wir jetzt den größeren Raum haben.Hannah Weidner: Ich habe für die König Galerie gearbeitet, die im Vergleich zu dem, was wir jetzt sind, eine große Maschine war. Als ich König verließ, befand ich mich in einer Phase meines Lebens, in der ich mich entscheiden musste, was ich als Nächstes tun wollte: In die nächste große Galerie wechseln oder meine eigenen Sachen machen. Also gründete ich mit meinem Freund Tim ein Kuratorenkollektiv namens 2322. Wir organisierten eine Gruppenausstellung zusammen mit unserem gemeinsamen Freund Pedro als Offsite-Event während der Berlin Art Week im September. Zu dieser Zeit war eine Kollegin von mir, mit der ich früher bei König zusammengearbeitet hatte, bei Grove für die Logistik zuständig und erzählte mir von dieser Londoner Galerie. Jacob war zur Berlin Art Week in der Stadt, und sie schlug mir vor, mich mit ihm zu treffen, weil sie wusste, dass sie etwas in Berlin machen wollten. Ich ging zu einer Vernissage im Backhaus. Zu dieser Zeit war es nur noch eine Woche bis zur Eröffnung der Ausstellung meines Kollektivs, und ich lud ihn ein. Jacob kam, aber wir sprachen an diesem Abend kaum miteinander. Am nächsten Tag rief er mich an und fragte mich, ob ich Zeit für ein Gespräch hätte, und wir trafen uns auf einen Kaffee. Im Grunde war das der Anfang von allem. Rückblickend ist es absurd, weil alles so schnell ging.Die Eröffnung des neuen Standorts ging auch recht schnell, oder?HW: Der ursprüngliche Zeitplan sah anders aus. Aber dann im Dezember fand ich bereits den Ort in der Greifswalder Straße, an dem wir nun eröffnen. Es war ein Bürogebäude, fast die letzte Etage. Es hatte diese hässlichen Decken, aber ich ging hinein und es war riesig. Manchmal muss man auf sein Bauchgefühl vertrauen. Ich dachte: "Ah, das könnte ein Studio sein, das könnte ein Büro sein". Dann war da noch dieser große Raum, der anfangs furchtbar aussah, aber allmählich fügte sich alles zusammen.  Ich hatte fast ein schlechtes Gewissen, weil mir bewusst war, dass wir gerade erst angefangen hatten, zusammenzuarbeiten, und alles sehr schnell ging. Aber ich wusste auch, dass wir die Chance nicht ziehen lassen konnten. Trotzdem ist es eine große Entscheidung, vor allem, wenn das Programm noch nicht steht. In den letzten Wochen haben wir versucht, den Raum zu renovieren und ihn so schnell wie möglich fertig zu stellen, während wir gleichzeitig versucht haben, die Shows für das Jahresprogramm zu planen. Ich denke, wir wissen alle, dass das nicht einfach ist. Vor allem, wenn man bedenkt, dass viele Künstler ihre Termine mindestens ein oder zwei Jahre im Voraus planen.Was will Grove zur Galerienszene in Berlin beitragen?HW: Es ist nicht so, dass wir hier eine Galerie eröffnen, weil wir denken, dass es nicht schon genug davon gibt. Was den Unterschied ausmacht, ist die Art und Weise, wie wir abseits der traditionellen Konzepte arbeiten. Ich bin auf der Suche nach Spannung, auch wenn das manchmal bedeutet, kuratorische Risiken einzugehen. Ich möchte Ausstellungen machen, bei denen man reinkommt und einfach begeistert ist. Außerdem habe ich durch das Residency-Programm die großartige Möglichkeit, die Ausstellungen in sehr enger Zusammenarbeit mit den Künstlern vorzubereiten. Hoffentlich können wir eine wirklich generative Konstellation zwischen den Künstlergemeinschaften hier und in London schaffen.JB: In mancher Hinsicht besteht ein großer Teil der Kunstwelt nur aus Kontext. Wie viele Künstler kann man auf einmal in seinem Gehirn unterbringen? Aus unserer Perspektive - wenn man bedenkt, was die Galerie nach Berlin bringen will - ist es die Erweiterung der Gemeinschaft. Einige der kommenden Ausstellungen spiegeln das insofern wider, als dass wir Künstlerinnen und Künstler aus New York, London und Berlin versammeln. Wie Hannah bereits erwähnte, gibt es in Berlin internationale Galerien. Es wäre dumm, wenn wir sagen würden, dass niemand sonst eine internationale Ausstellung gemacht hat, aber wir versuchen, Verbindungen herzustellen, wo es sonst, denke ich, als kleinere Galerie ein bisschen schwieriger ist.Die Eröffnungsausstellung heißt "Ashes to Lashes, Dust to Lust". Was dürfen wir erwarten?HW: Bei der Eröffnung von "Crush", einer Gruppenausstellung, die ich im Dezember im Backhaus kuratiert habe, stand ich mit Billie Clarken und Nils Koepfer draußen. Ich erzählte ihnen gerade, dass wir den Raum bekommen haben und dass wir eine Einweihungsparty schmeißen sollten. Da kam mir der Gedanke, dass wir tatsächlich eine Einweihungsparty schmeißen sollten, im Sinne von "den Laden in Brand setzen". Billie bot sofort eine Arbeit an, und ich fing an zu grübeln. In diesem Moment wurde mir klar, dass die Einweihungsfeier der Ausgangspunkt für das kuratorische Konzept sein sollte - beginnend mit dem Scherz, dass eine Galerie eine Einweihungsfeier veranstaltet, aber dann tatsächlich wörtlich genommen und mit all diesen Themen und Fragestellungen, die sich aus dem Wort ergeben.Welche sind das?HW: Marlon De Azambuja wird in einer Installation mit dem Medium Feuer arbeiten. Außerdem zeigen wir eine wunderschöne Skulptur von Jason Gringler, die ebenfalls Feuer beinhaltet. Dann gibt es noch den lustigen Aspekt einer Housewarming-Party. Die Ausstellung deckt auch die eher sexuelle Seite des Brennens und der Begierde mit Werken von Brittany Shepherd ab. So viele Ideen sind aus dem kleinen Scherz entstanden, den wir an jenem Abend im Dezember gemacht haben. Es hat sich irgendwie von selbst ergeben. Die Eröffnungsausstellung zeigt eine Mischung aus ziemlich dramatischen und brutalen Werken, die ich absolut liebe. Ich denke, das wird in der gesamten Ausstellung zu sehen sein, mit einem Hauch von Humor und einer gewissen Feierlichkeit.Können Sie schon etwas über das weitere Programm verraten?JB: Was wir sagen können: Die nächste Ausstellung wird eine Trioshow sein, die im Anschluss an eine Residency mit Colm Mac Athlaoich, Hannah Bohnen und Mariona Berenguer stattfinden wird, worauf wir uns sehr freuen.HW: Es ist schön zu sehen, wie sich alles zusammenfügt.</t>
+          <t>Alwin Lay bei Koenig2 by Robby GreifEin Kaffeeautomat ertränkt sich selbst. In einer ästhetisch nüchternen Fotoserie zeigt der in Rumänien geborene Künstler Alwin Lay das Luxusgerät, wie es in einem Glaskasten immer mehr braune Flüssigkeit mit Crema produziert - bis es selbst in seinen koffeinhaltigen Ausscheidungen verschwindet und nur noch ein dunkelbrauner Würfel übrig bleibt. Lay benutzt in diesem neu aufgelegten Projekt die Mittel der konzeptuellen Fotografie, lädt sie aber mit anarchisch-albernem Humor auf. Auch an den anderen Wänden des Project Spaces der Wiener Christine König Galerie finden sich Beispiele von Lays magischem Fotorealismus.Koenig2 by Robby Greif c/o Galerie Christine König, Wien, Alte Schmiedehalle</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kampagnen-Journalismus?      Galerien beschweren sich über Berichterstattung beim Hörfunkrat</t>
+          <t>Eröffnung der Grove-Galerie in Berlin      "Gemeinsam ein neues System schaffen"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/galerien-beschweren-sich-ueber-berichterstattung-beim-hoerfunkrat</t>
+          <t>https://www.monopol-magazin.de/interview-grove-gallery-berlin</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jacob Barnes ist Galerist und Redakteur und arbeitet in London und Berlin. Er wurde in New York geboren und wuchs in Dublin aufMorgane Wagner ist Galeristin aus London. Sie ist die Mitbegründerin und Direktorin von GroveHannah Weidner, geboren in Heidelberg, ist Kuratorin in Berlin und Direktorin von Grove"Ashes to Lashes, Dust to Lust", Grove Gallery, Berlin, bis 19. April</t>
+          <t>Stand von Koenig2 by Robby Grief c/o Galerie Christine König, Art Düsseldorf, 2023</t>
         </is>
       </c>
     </row>

--- a/posts/webscraping_python/output.xlsx
+++ b/posts/webscraping_python/output.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Messetipps      7 Stände, die sich auf der Art Düsseldorf lohnen</t>
+          <t>Gallery Weekend Berlin      Wohin in der Potsdamer Straße?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/7-staende-die-sich-auf-der-art-duesseldorf-lohnen</t>
+          <t>https://www.monopol-magazin.de/gallery-weekend-berlin-2023-Potsdamer-Strasse</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Auf der Art Düsseldorf zeigen 95 Galerien noch bis Sonntag eine ganze Menge zeitgenössische Kunst. Hier eine kleine Orientierungshilfe, wo man vorbeischauen sollte Charlotte Klobassa bei Zeller von AlmsickEs gibt eine Art von Kunst, die täglich überall auf der Welt entsteht, die aber selten beachtet wird: die Kritzeleien, mit denen Menschen in Schreibwaren- oder Künstlerbedarfsläden Stifte oder Pinsel ausprobieren. Die österreichische Malerin Charlotte Klobassa hat diese meist abstrakten Farbformen gesammelt und auf die Leinwand gebracht. Nun wirken die Bilder von weitem wie zarte Aquarelle, bei näherem Hinsehen entpuppen sie sich jedoch als akribisch ausgearbeitete Ölmalereien. Dass die Künstlerin die Wände der Koje ihrer Galerie durch weiße Vorhänge ersetzt hat, verleiht dem Ensemble eine auf Messen seltene Leichtigkeit.Zeller van Almsick, Wien, Stand: Alte Schmiedehalle</t>
+          <t>Gallery Weekend Berlin, 28. bis 30. AprilWeitere Rundgänge: Mitte, Kreuzberg, der Westen</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leitplanken und Uecker-Nägel      Art Düsseldorf mit großem Angebot</t>
+          <t>Kunstmesse Paper Positions in Berlin      Stabil, fragil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/art-duesseldorf-mit-grossem-angebot</t>
+          <t>https://www.monopol-magazin.de/paper-positions-berlin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Zeller van Almsick, Art Düsseldorf 2023</t>
+          <t>Parallel zum Gallery Weekend in Berlin zeigt die Messe Paper Positions moderne und zeitgenössische Werke mit Fokus auf PapierOb Zeichnung, Aquarell, Siebdruck, Collage oder auch Skulptur aus Pappmaschee – das Medium Papier ist vielfältiger, als man denkt. Auf der Paper Positions, die auch in diesem Jahr parallel zum Gallery Weekend in der Hauptstadtrepräsentanz der Deutschen Telekom stattfindet, gibt es alle Varianten der Papierkunst. Von den 56 teilnehmenden Galerien sind nicht weniger als 19 neu dabei, wie die Cave Ayumigallery aus dem Papierkunstland Japan: Sie zeigt Zeichnungen von Naoto Kumagai, der zarte, abstrakte Farbstreifen mit dem Papier verschmelzen lässt.</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abschied von Marian Goodman      Künstlerin Nan Goldin wechselt zu Gagosian</t>
+          <t>Gallery Weekend Berlin      Wohin im Westen?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/kuenstlerin-nan-goldin-wechselt-zu-gagosian</t>
+          <t>https://www.monopol-magazin.de/gallery-weekend-berlin-2023-westen</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Copperfield GalleryAuf einer Messe, wo leicht verkäufliche Medien wie Gemälde, Fotografie und kleinere Skulpturen dominieren, sticht die Videoinstallation bei der Londoner Galerie Copperfield heraus. Auf dem Bildschirm zwischen umgekippten Einkaufswagen läuft das Werk "Beyond The Substrata" des britisch-ghanaischen Künstlers Larry Achiampong, auf dem eine vermummte Person in einem verlassenen Supermarkt tanzt und eine Stimme aus dem Off über Rassismus und Rebellion reflektiert. Der apokalyptisch-poetische Film wird unter anderem flankiert von Achiampongs Collagen-Serie "Glyth" und glamourösen Fotografien von Ada M. Patterson. Eine überzeugende und dichte Inszenierung. Copperfield Gallery, London, Alte Schmiedehalle</t>
+          <t>Cave-Ayumi Gallery: Naoto Kumagai "Integrate", 2023</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kunstmesse      Art Düsseldorf feiert fünfte Auflage</t>
+          <t>Gallery Weekend Berlin      Wohin in Mitte?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/art-duesseldorf-feiert-fuenfte-auflage</t>
+          <t>https://www.monopol-magazin.de/gallery-weekend-berlin-2023-mitte</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stand der Copperfield Gallery aus London auf der Art Düsseldorf 2023</t>
+          <t>Kräftig und klar wirken dagegen die Siebdrucke von Helēna Heinrihsone, die sich seit den 1970er-Jahren in ihrer Heimat Lettland mit ihren reduzierten, oftmals weiblichen Figuren einen Namen gemacht hat – sie ist bei der Galerie Māksla XO aus Riga zu sehen.</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Art Düsseldorf      Gut aufgestellt</t>
+          <t>Art Brussels      Eine Messe für Spürnasen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/art-duesseldorf-2023</t>
+          <t>https://www.monopol-magazin.de/art-brussels-2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rebekka Benzenberg und Monika Grabuschnigg bei Anton JanizewskiUngewöhnliche Verhältnisse zu alltäglichen Gegenständen prägen den Stand des jungen Berliner Galeristen Anton Janizewski. Die Künstlerin Rebekka Benzenberg schafft Installationen aus alten Daunen- oder Lederjacken und gibt den ausrangierten Kleidungsstücken eine körperliche und skulpturale Qualität. Monika Grabuschnigg setzt sich mit Kühlschranktüren auseinander und verwandelt diese in glänzende Keramikwerke mit verschiedenen Ornamenten. Überraschenderweise gibt der Single-Kühlschrank, besonders nach der Pandemie, ein besonders kreatives und optisch verführerisches Vanitas-Symbol ab.Anton Janizewski, Berlin, Kaltstahlhalle</t>
+          <t>Māksla XO: Helena Heinrihsone "Red", 2022</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Talkreihe auf der Art Düsseldorf      Wie können die Generationen voneinander lernen?</t>
+          <t>Kunstmesse      20 Jahre Art Karlsruhe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/wie-koennen-die-generationen-voneinander-lernen</t>
+          <t>https://www.monopol-magazin.de/20-jahre-art-karlsruhe</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Stand von Anton Janizewski auf der Art Düsseldorf 2023</t>
+          <t>Auf der Messe werden mehrere Preise für die beste Koje und herausragende Künstlerinnen und Künstler verliehen. Die damit verbundenen Ankäufe wandern in die Sammlung des 2021 gegründeten Museums Haus des Papiers in Berlin.</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Auktion in Kalifornien      Banksy-Werk bringt Millionen</t>
+          <t>Auktionen im September      Privatsammlung von Freddie Mercury wird versteigert</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/banksy-werk-bringt-millionen</t>
+          <t>https://www.monopol-magazin.de/privatsammlung-von-freddie-mercury-wird-versteigert</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Inge Mahn bei Kadel WillbornEine gelungene Inszenierung am Stand ist bei der Düsseldorfer Galerie Kadel Willborn zu finden. Eine monochrom weiße Installation der Künstlerin Inge Mahn thront im Zentrum und wird von den digital manipulierten Fotografienvon von Jan Paul Evers flankiert. So erhebt sich eine mächtige Welle hinter Mahns künstlerischem Balanceakt, bei dem ein Stuhl auf einer Kugel steht. Man sollte sich außerdem unbedingt um die Ecke des Stands trauen: Hinter einer Wand versteckt sich Inge Mahns wahrscheinlich lustigste Installation aus Miniatur-Hundehütten. Minimalistische Architektur mit Wassernapf.Kadel Willborn, Düsseldorf, Alte Schmiedehalle</t>
+          <t>Paper Positions, Berlin, 27. bis 30. April</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Auktion in Köln      Richter-Bild für halbe Million Euro versteigert</t>
+          <t>Sotheby's      Riesenspinne und Klimt-Premiere bei New Yorker Frühjahrsauktionen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/richter-bild-fuer-halbe-million-euro-versteigert</t>
+          <t>https://www.monopol-magazin.de/riesenspinne-und-klimt-premiere-bei-new-yorker-fruehjahrsauktionen</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stand von Kadel Willborn auf der Art Düsseldorf, 2023</t>
+          <t>Gallery Weekend Berlin, 28. bis 30. AprilWeitere Rundgänge: Mitte, Kreuzberg, Potsdamer Straße</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kunstmesse Art Düsseldorf      Extrarunde in den Galerien</t>
+          <t>Galeristin Xiaochan Hua      "Freiheit ist mir sehr wichtig"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/extrarunde-den-galerien</t>
+          <t>https://www.monopol-magazin.de/Interview-Xiaochan-Hua</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Alwin Lay bei Koenig2 by Robby GreifEin Kaffeeautomat ertränkt sich selbst. In einer ästhetisch nüchternen Fotoserie zeigt der in Rumänien geborene Künstler Alwin Lay das Luxusgerät, wie es in einem Glaskasten immer mehr braune Flüssigkeit mit Crema produziert - bis es selbst in seinen koffeinhaltigen Ausscheidungen verschwindet und nur noch ein dunkelbrauner Würfel übrig bleibt. Lay benutzt in diesem neu aufgelegten Projekt die Mittel der konzeptuellen Fotografie, lädt sie aber mit anarchisch-albernem Humor auf. Auch an den anderen Wänden des Project Spaces der Wiener Christine König Galerie finden sich Beispiele von Lays magischem Fotorealismus.Koenig2 by Robby Greif c/o Galerie Christine König, Wien, Alte Schmiedehalle</t>
+          <t>Gallery Weekend Berlin, 28. bis 30. AprilWeitere Rundgänge: Kreuzberg, Potsdamer Straße, der Westen</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eröffnung der Grove-Galerie in Berlin      "Gemeinsam ein neues System schaffen"</t>
+          <t>Kunstmesse Art Brussels      Das nächste große Ding</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.monopol-magazin.de/interview-grove-gallery-berlin</t>
+          <t>https://www.monopol-magazin.de/art-brussels-preview-das-naechste-grosse-ding</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stand von Koenig2 by Robby Grief c/o Galerie Christine König, Art Düsseldorf, 2023</t>
+          <t>Die gut informierte lokale Sammlerszene liebt ihre Art Brussels. Junge Positionen stimulieren auf der Brüsseler Messe Entdeckerfreude und Kauflust. Die 39. Ausgabe hat insbesondere für Malereifans viel zu bietenGanz ehrlich: Wer hätte nicht Lust bei Galerien wie Nagel Draxler, Nino Mier oder Mendes Wood DM einzukaufen oder mit Künstlerinnen wie Amy Sillman, Cecilia Edefalk oder Nathalie du Pasquier ins Sammeln zu starten? Bei Almine Rech oder Berthold Pott zuschlagen, was Schönes von Hans-Jörg Mayer oder Walter Swennen einfach mal spontan unter den Arm klemmen, na, wie wär's?Am Preischild kann es dann schon mal hängen, und man verkneift es sich doch. Doch damit ist jetzt Schluss, die Art Brussels hat sich ein gelungenes Gimmick für den guten Zweck ausgedacht: Zahlreiche Künstlerinnen und Künstler der Messe steuerten ein Bild im Postkarten-Format bei, um mit "KickCancer" dem Krebs im Kindesalter den Kampf anzusagen.Stolze 320 Einreichungen zählt das tolle Projekt. Im handlichen Taschenformat wurde sich künstlerisch ausgetobt, fraglos viele gelungene "Minis", wie die große Show-Wall der Kabinettstücke gleich am Messeeingang zeigt. Dort kann nun nach Wunsch und Wahl zugegriffen werden, von der Wand weg – allerdings, auch das eine interessante Idee, ohne die Künstler genannt zu bekommen; den Namen gibt’s erst zum Kauf dazu."Unbedingt" wolle sie sich schon hier auf den ersten Metern eindecken, bekundet eine Sammlerin beim Screening des verlockenden Angebots. Was gefällt Ihnen denn, was würden Sie nehmen? Na, dies und das und jenes – tatsächlich sind die Hälfte der Arbeiten schon am ersten Tag vergriffen. Der Run auf die andere Hälfte ist also eröffnet – für pauschale 400 Euro ist man dabei. Eine Zeichnung von Amy Sillman für 400 Euro? Say what?!Jene Entdeckerlaune, für die die Brüsseler Sammlerszene geschätzt wird, hält sich offenbar: Bis zur letzten Minute werde hier verkauft – nicht bloß ein Rush zum Start und dann Flaute, weiß Galerist Claas Reiss begeistert zu berichten. Noch zehn Minuten vor Messeschluss griffen Sammler im letzten Jahr bei ihm zu. Klar, dass er auch in diesem Jahr wieder an Bord ist und in der "Discovery"-Section, die junge Talente vorstellen will. Er zeigt in einer Solopräsentation mit Magnus Frederik Clausen einen interessanten, konzeptuell inspirierten Maler.Clausen sei ein Kontrollfreak – offensichtlich so sehr, dass es ihm besonders Freude macht, jene Kontrolle teilweise abzugeben und auszusetzen, indem er andere für sich malen lässt. Zum Beispiel seinen neunjährigen Sohn Benny, der zur kleinen Schar der "Auftragsmaler" gehört, die für ihn "arbeiten". Eine besondere Affinität zum Metier ist nicht mal Voraussetzung, gar ganz im Gegenteil vielleicht sogar hinderlich – nach einer scharf umrissenen Aufgabe lässt Clausen sich überraschen. Vorgabe ist offensichtlich bloß: Male mir diese oder jene Uhrzeit – das war’s."Sexy Deskilling" könnte man nennen, was bei diesem semi-kontrollierten Amateur-trifft-Leinwand-Experiment herauskommt. Die Eleganz vermeintlich ungelenker Pinselzüge kann ganz erstaunlich sein, das vermeintlich Doofe ungeahnte kompositorische Qualitäten freisetzen. Dass der Mann auch noch den Kunstraum Jir Sandel betreibt, ein absichtlicher "Pisstake" (Claas Reiss) auf ein ähnlich benanntes Modelabel, und mit dem Maler David Ostrowski schon mal gemeinsame Sache macht – das passt.</t>
         </is>
       </c>
     </row>
